--- a/策划案和分工表，记得看！/策划案和分工（基本）.xlsx
+++ b/策划案和分工表，记得看！/策划案和分工（基本）.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepSea\策划案和分工表，记得看！\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17655" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="大概玩法需求策划" sheetId="1" r:id="rId1"/>
@@ -1810,14 +1815,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,151 +1864,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2066,30 +1942,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2100,158 +1952,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2360,255 +2062,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2693,213 +2159,290 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2910,7 +2453,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2938,159 +2481,45 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="00FAF7D4"/>
+      <color rgb="FFFAF7D4"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3340,58 +2769,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="M4" s="62" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="M4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
@@ -3405,120 +2834,120 @@
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
       <c r="K5" s="57"/>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-    </row>
-    <row r="6" spans="13:21">
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="33" t="s">
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-    </row>
-    <row r="8" spans="13:21">
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="63" t="s">
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="M9" s="67" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="M9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="63" t="s">
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
       <c r="M11" s="57" t="s">
         <v>11</v>
       </c>
@@ -3532,140 +2961,139 @@
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="63" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="M14" s="68" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="M14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="63" t="s">
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-    </row>
-    <row r="16" spans="13:16">
-      <c r="M16" s="67" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A15:K15"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="M4:V4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="M5:V5"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="M9:V9"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A15:K15"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:29">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="41" t="s">
         <v>19</v>
       </c>
       <c r="W1" s="57" t="s">
@@ -3678,1471 +3106,1469 @@
       <c r="AB1" s="57"/>
       <c r="AC1" s="57"/>
     </row>
-    <row r="2" ht="14.25" spans="1:36">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="42"/>
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="55"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="49"/>
       <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="59"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="51"/>
       <c r="S3" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="48"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:36">
-      <c r="A6" s="50" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A4" s="43"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A5" s="44"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A6" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:36">
-      <c r="A7" s="49" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="49" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="S7" s="61" t="s">
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="S7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="48"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="50" t="s">
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A9" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="42"/>
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="56"/>
+      <c r="L10" s="50"/>
       <c r="M10" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="47"/>
+      <c r="R10" s="42"/>
       <c r="S10" t="s">
         <v>35</v>
       </c>
-      <c r="X10" s="47"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="48"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="48"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="48"/>
-      <c r="X11" s="47"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="48"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="48"/>
-      <c r="X12" s="47"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="48"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="48"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
-      <c r="X13" s="47"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="48"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="48"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="48"/>
-      <c r="X14" s="47"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="48"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="48"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="48"/>
-      <c r="X15" s="47"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="48"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="48"/>
-      <c r="X16" s="47"/>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="48"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="48"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="48"/>
-      <c r="X17" s="47"/>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="50" t="s">
+      <c r="X10" s="42"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="43"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="X11" s="42"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="43"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
+      <c r="X12" s="42"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="43"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="X13" s="42"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="43"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="X14" s="42"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="43"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+      <c r="X15" s="42"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="43"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="X16" s="42"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="43"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43"/>
+      <c r="X17" s="42"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A18" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="60"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="67"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="42"/>
       <c r="G19" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="56"/>
+      <c r="L19" s="50"/>
       <c r="M19" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="47"/>
+      <c r="R19" s="42"/>
       <c r="S19" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="47"/>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="48"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="X20" s="47"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="48"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="48"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="48"/>
-      <c r="X21" s="47"/>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="48"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="48"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="48"/>
-      <c r="X22" s="47"/>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="48"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="48"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="48"/>
-      <c r="X23" s="47"/>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="48"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="48"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="48"/>
-      <c r="X24" s="47"/>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="48"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="48"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="48"/>
-      <c r="X25" s="47"/>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="48"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="48"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="48"/>
-      <c r="X26" s="47"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="48"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="48"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="48"/>
-      <c r="X27" s="47"/>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="48"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="48"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="48"/>
-      <c r="X28" s="47"/>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="48"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="48"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
-      <c r="X29" s="47"/>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="50" t="s">
+      <c r="X19" s="42"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="43"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43"/>
+      <c r="X20" s="42"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="43"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="X21" s="42"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A22" s="43"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="43"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="X22" s="42"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="43"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
+      <c r="X23" s="42"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="43"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43"/>
+      <c r="X24" s="42"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="43"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="43"/>
+      <c r="X25" s="42"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A26" s="43"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="43"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
+      <c r="X26" s="42"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A27" s="43"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="43"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="43"/>
+      <c r="X27" s="42"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="43"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="43"/>
+      <c r="X28" s="42"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="43"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="43"/>
+      <c r="X29" s="42"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A30" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="60"/>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="67"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="42"/>
       <c r="G31" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="56"/>
+      <c r="L31" s="50"/>
       <c r="M31" t="s">
         <v>44</v>
       </c>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48" t="s">
+      <c r="R31" s="42"/>
+      <c r="S31" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="X31" s="47"/>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="X31" s="42"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="42"/>
       <c r="G32" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="56"/>
+      <c r="L32" s="50"/>
       <c r="M32" t="s">
         <v>48</v>
       </c>
-      <c r="R32" s="47"/>
-      <c r="S32" s="48" t="s">
+      <c r="R32" s="42"/>
+      <c r="S32" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="47"/>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="48"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="48"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="48"/>
-      <c r="X33" s="47"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="48"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="48"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="48"/>
-      <c r="X34" s="47"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="48"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="48"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="48"/>
-      <c r="X35" s="47"/>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="48"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="48"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="48"/>
-      <c r="X36" s="47"/>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="48"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="48"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="48"/>
-      <c r="X37" s="47"/>
-    </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="48"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="48"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="48"/>
-      <c r="X38" s="47"/>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="48"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="48"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="X39" s="47"/>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="48"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="48"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="48"/>
-      <c r="X40" s="47"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="48"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="48"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="48"/>
-      <c r="X41" s="47"/>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="48"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="48"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="48"/>
-      <c r="X42" s="47"/>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="48"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="48"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="48"/>
-      <c r="X43" s="47"/>
-    </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="48"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="48"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="48"/>
-      <c r="X44" s="47"/>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="48"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="48"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="48"/>
-      <c r="X45" s="47"/>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="48"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="48"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="48"/>
-      <c r="X46" s="47"/>
-    </row>
-    <row r="47" spans="1:24">
-      <c r="A47" s="48"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="48"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="48"/>
-      <c r="X47" s="47"/>
-    </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="48"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="48"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="X48" s="47"/>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="48"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="48"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="48"/>
-      <c r="X49" s="47"/>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="48"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="48"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="48"/>
-      <c r="X50" s="47"/>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="48"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="48"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="48"/>
-      <c r="X51" s="47"/>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="48"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="48"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="48"/>
-      <c r="X52" s="47"/>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="48"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="48"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="48"/>
-      <c r="X53" s="47"/>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="48"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="48"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="48"/>
-      <c r="X54" s="47"/>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="48"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="48"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="48"/>
-      <c r="X55" s="47"/>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="A56" s="48"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="48"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="48"/>
-      <c r="X56" s="47"/>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" s="48"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="48"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="48"/>
-      <c r="X57" s="47"/>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" s="48"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="48"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="48"/>
-      <c r="X58" s="47"/>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="A59" s="48"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="48"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="48"/>
-      <c r="X59" s="47"/>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="A60" s="48"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="48"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="48"/>
-      <c r="X60" s="47"/>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="A61" s="48"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="48"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="48"/>
-      <c r="X61" s="47"/>
-    </row>
-    <row r="62" spans="1:24">
-      <c r="A62" s="48"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="48"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="48"/>
-      <c r="X62" s="47"/>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" s="48"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="48"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="48"/>
-      <c r="X63" s="47"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:24">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="53"/>
-      <c r="W64" s="53"/>
-      <c r="X64" s="54"/>
+      <c r="X32" s="42"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A33" s="43"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="43"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="43"/>
+      <c r="X33" s="42"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A34" s="43"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="43"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="43"/>
+      <c r="X34" s="42"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A35" s="43"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="43"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="43"/>
+      <c r="X35" s="42"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A36" s="43"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="43"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="43"/>
+      <c r="X36" s="42"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A37" s="43"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="43"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="43"/>
+      <c r="X37" s="42"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A38" s="43"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="43"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="43"/>
+      <c r="X38" s="42"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A39" s="43"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="43"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="43"/>
+      <c r="X39" s="42"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A40" s="43"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="43"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="43"/>
+      <c r="X40" s="42"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A41" s="43"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="43"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="43"/>
+      <c r="X41" s="42"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A42" s="43"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="43"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="43"/>
+      <c r="X42" s="42"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A43" s="43"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="43"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="43"/>
+      <c r="X43" s="42"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A44" s="43"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="43"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="43"/>
+      <c r="X44" s="42"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A45" s="43"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="43"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="43"/>
+      <c r="X45" s="42"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A46" s="43"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="43"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="43"/>
+      <c r="X46" s="42"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A47" s="43"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="43"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="43"/>
+      <c r="X47" s="42"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A48" s="43"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="43"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="43"/>
+      <c r="X48" s="42"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A49" s="43"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="43"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="43"/>
+      <c r="X49" s="42"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A50" s="43"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="43"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="43"/>
+      <c r="X50" s="42"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A51" s="43"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="43"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="43"/>
+      <c r="X51" s="42"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A52" s="43"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="43"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="43"/>
+      <c r="X52" s="42"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A53" s="43"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="43"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="43"/>
+      <c r="X53" s="42"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A54" s="43"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="43"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="43"/>
+      <c r="X54" s="42"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A55" s="43"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="43"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="43"/>
+      <c r="X55" s="42"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A56" s="43"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="43"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="43"/>
+      <c r="X56" s="42"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A57" s="43"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="43"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="43"/>
+      <c r="X57" s="42"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A58" s="43"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="43"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="43"/>
+      <c r="X58" s="42"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A59" s="43"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="43"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="43"/>
+      <c r="X59" s="42"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A60" s="43"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="43"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="43"/>
+      <c r="X60" s="42"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A61" s="43"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="43"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="43"/>
+      <c r="X61" s="42"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A62" s="43"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="43"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="43"/>
+      <c r="X62" s="42"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A63" s="43"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="43"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="43"/>
+      <c r="X63" s="42"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A30:X30"/>
     <mergeCell ref="W1:AC1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A6:X6"/>
     <mergeCell ref="A9:X9"/>
     <mergeCell ref="A18:X18"/>
-    <mergeCell ref="A30:X30"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="36"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="37" t="s">
+      <c r="Z1" s="33"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="37" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="43" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="43"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="37" t="s">
+      <c r="Z2" s="40"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="37" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="43" t="s">
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="43"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="41" t="s">
+      <c r="Z3" s="40"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="42" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="42" t="s">
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-    </row>
-    <row r="6" spans="25:26">
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-    </row>
-    <row r="7" spans="25:26">
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="37" t="s">
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="37" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="37" t="s">
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A9" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="37" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="39" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="37" t="s">
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="37" t="s">
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="42" t="s">
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="W31" sqref="W31:X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:23">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="13:20">
-      <c r="M4" s="35" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M4" s="32" t="s">
         <v>78</v>
       </c>
       <c r="T4" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="13:20">
-      <c r="M6" s="35" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M6" s="32" t="s">
         <v>80</v>
       </c>
       <c r="T6" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="20:20">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T8" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="20:20">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="T10" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A22" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="33" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A23" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="33" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A25" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="33" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A29" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" ht="22.5" spans="1:25">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:25" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="26" t="s">
         <v>95</v>
       </c>
@@ -5153,337 +4579,322 @@
     <mergeCell ref="A22:Y22"/>
     <mergeCell ref="A34:Y34"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-    </row>
-    <row r="15" ht="18.75" spans="1:17">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
       <c r="E15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
       <c r="I15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
       <c r="N15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O15"/>
       <c r="Q15" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D17"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="28" t="s">
         <v>108</v>
       </c>
       <c r="Q17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" ht="67.5" spans="1:18">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D18"/>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" ht="67.5" spans="1:18">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D19"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" ht="94.5" spans="1:18">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:18" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D20"/>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="30" t="s">
+      <c r="N20" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="Q20" s="30" t="s">
+      <c r="Q20" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="R20" s="31" t="s">
+      <c r="R20" s="30" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" ht="67.5" spans="1:18">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D21"/>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="Q21" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" ht="67.5" spans="5:18">
-      <c r="E22" s="30" t="s">
+    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E22" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="30" t="s">
+      <c r="N22" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="Q22" s="30" t="s">
+      <c r="Q22" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="30" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5491,23 +4902,22 @@
   <mergeCells count="1">
     <mergeCell ref="A14:R14"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" ht="18.75" spans="1:11">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>165</v>
       </c>
@@ -5522,7 +4932,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -5534,7 +4944,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>166</v>
       </c>
@@ -5549,7 +4959,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -5561,7 +4971,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -5576,7 +4986,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -5588,7 +4998,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>168</v>
       </c>
@@ -5603,7 +5013,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -5615,7 +5025,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>169</v>
       </c>
@@ -5630,7 +5040,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -5642,7 +5052,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>170</v>
       </c>
@@ -5657,7 +5067,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -5669,7 +5079,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
@@ -5684,99 +5094,98 @@
       <c r="J14" s="19"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="17" ht="18.75" spans="1:1">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" ht="18.75" spans="1:1">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:33">
+    <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>185</v>
       </c>
@@ -5813,7 +5222,7 @@
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5838,7 +5247,7 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
     </row>
-    <row r="3" ht="27" spans="1:33">
+    <row r="3" spans="1:33" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>191</v>
       </c>
@@ -5909,7 +5318,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" ht="94.5" spans="1:33">
+    <row r="4" spans="1:33" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>197</v>
       </c>
@@ -5980,7 +5389,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" ht="94.5" spans="1:33">
+    <row r="5" spans="1:33" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>216</v>
       </c>
@@ -6051,7 +5460,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" ht="121.5" spans="1:33">
+    <row r="6" spans="1:33" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>233</v>
       </c>
@@ -6122,7 +5531,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" ht="135" spans="1:33">
+    <row r="7" spans="1:33" ht="135" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>250</v>
       </c>
@@ -6193,7 +5602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" ht="81" spans="7:16">
+    <row r="8" spans="1:33" ht="81" x14ac:dyDescent="0.15">
       <c r="G8" s="8" t="s">
         <v>265</v>
       </c>
@@ -6219,7 +5628,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" ht="67.5" spans="13:16">
+    <row r="9" spans="1:33" ht="67.5" x14ac:dyDescent="0.15">
       <c r="M9" s="8" t="s">
         <v>271</v>
       </c>
@@ -6234,28 +5643,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:1">
+    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:19">
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>274</v>
       </c>
@@ -6266,7 +5674,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>277</v>
       </c>
@@ -6277,7 +5685,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>278</v>
       </c>
@@ -6288,10 +5696,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>281</v>
       </c>
+      <c r="H10" s="69"/>
       <c r="J10" s="4" t="s">
         <v>282</v>
       </c>
@@ -6299,10 +5708,11 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>284</v>
       </c>
+      <c r="H12" s="70"/>
       <c r="J12" s="4" t="s">
         <v>285</v>
       </c>
@@ -6310,10 +5720,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="H14" s="70"/>
       <c r="J14" s="4" t="s">
         <v>288</v>
       </c>
@@ -6321,7 +5732,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>290</v>
       </c>
@@ -6332,10 +5743,11 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="H19" s="70"/>
       <c r="J19" s="4" t="s">
         <v>293</v>
       </c>
@@ -6343,10 +5755,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="H21" s="70"/>
       <c r="J21" s="4" t="s">
         <v>296</v>
       </c>
@@ -6354,7 +5767,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>298</v>
       </c>
@@ -6365,25 +5778,26 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J25" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="H26" s="70"/>
       <c r="S26" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J27" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>304</v>
       </c>
@@ -6391,7 +5805,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="10:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J30" s="4" t="s">
         <v>306</v>
       </c>
@@ -6399,38 +5813,41 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="10:10">
+      <c r="H31" s="70"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J32" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="H33" s="70"/>
       <c r="S33" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J34" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>313</v>
       </c>
+      <c r="H35" s="70"/>
       <c r="S35" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>315</v>
       </c>
@@ -6438,13 +5855,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="H40" s="70"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/策划案和分工表，记得看！/策划案和分工（基本）.xlsx
+++ b/策划案和分工表，记得看！/策划案和分工（基本）.xlsx
@@ -21,7 +21,7 @@
     <sheet name="美术需求" sheetId="8" r:id="rId7"/>
     <sheet name="美术分工" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="319">
   <si>
     <t>玩法设计需求</t>
   </si>
@@ -1810,13 +1810,17 @@
   </si>
   <si>
     <t>游戏LOGO、海报、关卡加载插画</t>
+  </si>
+  <si>
+    <t>制作中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,6 +1883,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2074,7 +2086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2243,24 +2255,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2270,22 +2297,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2794,58 +2809,58 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="M4" s="56" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="M4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="M5" s="58" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="M5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="M6" s="54"/>
@@ -2886,31 +2901,31 @@
       <c r="U8" s="54"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="M9" s="61" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="M9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="53"/>
@@ -2935,31 +2950,31 @@
       <c r="U10" s="54"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="M11" s="57" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="M11" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="53"/>
@@ -2980,19 +2995,19 @@
       <c r="U12" s="54"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="54"/>
       <c r="S13" s="54"/>
@@ -3024,19 +3039,19 @@
       <c r="U14" s="54"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
       <c r="M15" s="54"/>
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
@@ -3096,43 +3111,43 @@
       <c r="S1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="64"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="69"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
@@ -3254,32 +3269,32 @@
       <c r="AJ5" s="45"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="67"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="66"/>
       <c r="Y6" s="45"/>
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
@@ -3366,32 +3381,32 @@
       <c r="AJ8" s="45"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="67"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="45"/>
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
@@ -3494,32 +3509,32 @@
       <c r="X17" s="42"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="67"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="66"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -3640,32 +3655,32 @@
       <c r="X29" s="42"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="67"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="66"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -4402,31 +4417,31 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
@@ -4471,33 +4486,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
@@ -4520,33 +4535,33 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
@@ -4620,26 +4635,26 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -5652,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5700,7 +5715,7 @@
       <c r="A10" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="56"/>
       <c r="J10" s="4" t="s">
         <v>282</v>
       </c>
@@ -5712,7 +5727,9 @@
       <c r="A12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="70"/>
+      <c r="H12" s="71" t="s">
+        <v>318</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>285</v>
       </c>
@@ -5724,7 +5741,7 @@
       <c r="A14" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="57"/>
       <c r="J14" s="4" t="s">
         <v>288</v>
       </c>
@@ -5747,7 +5764,7 @@
       <c r="A19" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="57"/>
       <c r="J19" s="4" t="s">
         <v>293</v>
       </c>
@@ -5759,7 +5776,7 @@
       <c r="A21" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H21" s="70"/>
+      <c r="H21" s="57"/>
       <c r="J21" s="4" t="s">
         <v>296</v>
       </c>
@@ -5787,7 +5804,7 @@
       <c r="A26" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H26" s="70"/>
+      <c r="H26" s="57"/>
       <c r="S26" s="4" t="s">
         <v>302</v>
       </c>
@@ -5817,7 +5834,7 @@
       <c r="A31" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H31" s="70"/>
+      <c r="H31" s="57"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J32" s="4" t="s">
@@ -5828,7 +5845,7 @@
       <c r="A33" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H33" s="70"/>
+      <c r="H33" s="57"/>
       <c r="S33" s="4" t="s">
         <v>311</v>
       </c>
@@ -5842,7 +5859,7 @@
       <c r="A35" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H35" s="70"/>
+      <c r="H35" s="57"/>
       <c r="S35" s="4" t="s">
         <v>314</v>
       </c>
@@ -5859,7 +5876,7 @@
       <c r="A40" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H40" s="70"/>
+      <c r="H40" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
